--- a/biology/Botanique/Colli_Orientali_del_Friuli_Cabernet_Sauvignon_riserva/Colli_Orientali_del_Friuli_Cabernet_Sauvignon_riserva.xlsx
+++ b/biology/Botanique/Colli_Orientali_del_Friuli_Cabernet_Sauvignon_riserva/Colli_Orientali_del_Friuli_Cabernet_Sauvignon_riserva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Colli Orientali del Friuli Cabernet Sauvignon riserva est un vin rouge italien de la région Frioul-Vénétie Julienne doté d'une appellation DOC depuis le 20 juillet 1970. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent au nord - est de la province d'Udine dans les communes de Tarcento, Nimis, Faedis, Povoletto, Attimis, Torreano, San Pietro al Natisone, Prepotto, Premariacco, Buttrio, Manzano, San Giovanni al Natisone et Corno di Rosazzo.
@@ -514,7 +526,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis intense, tendant au rouge grenat avec le vieillissement
 odeur : vineux, intense, épicé
@@ -548,7 +562,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les viandes rouges grillées
 </t>
@@ -579,7 +595,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
  pas de données disponibles 
